--- a/Excel/Values.xlsx
+++ b/Excel/Values.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mma2928\IdeaProjects\Final\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B011FE-77DF-4E99-9E23-75B6BCDF978F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA290B42-DDE9-4291-ACBA-9E63672A5676}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1820" yWindow="1820" windowWidth="14400" windowHeight="7810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>website</t>
   </si>
@@ -37,6 +37,24 @@
   </si>
   <si>
     <t>ZigWheels - New Cars, Used Cars, Bikes Prices, News, Reviews, Forum</t>
+  </si>
+  <si>
+    <t>NewBikes</t>
+  </si>
+  <si>
+    <t>Upcoming Bikes</t>
+  </si>
+  <si>
+    <t>Manufacturer</t>
+  </si>
+  <si>
+    <t>Honda</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Chennai</t>
   </si>
 </sst>
 </file>
@@ -370,13 +388,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="33.6328125" customWidth="1"/>
+    <col min="2" max="2" width="32.7265625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -392,6 +414,30 @@
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
